--- a/biology/Botanique/Acronema/Acronema.xlsx
+++ b/biology/Botanique/Acronema/Acronema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acronema est un genre de plantes de la famille des Apiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juin 2018)[2] et The Plant List            (24 juin 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juin 2018) et The Plant List            (24 juin 2018) :
 Acronema acronemifolium (C.B.Clarke) H.Wolff
 Acronema alpinum S.L.Liou &amp; R.H.Shan
 Acronema astrantiifolium H.Wolff
@@ -552,7 +566,7 @@
 Acronema wolffiana Fedde ex H. Wolff
 Acronema xizangense S.L.Liou &amp; R.H.Shan
 Acronema yadongense S.L.Liou
-Selon Catalogue of Life                                   (24 juin 2018)[4] :
+Selon Catalogue of Life                                   (24 juin 2018) :
 Acronema alpinum S.L. Liou &amp; Shan
 Acronema astrantiifolium H. Wolff
 Acronema brevipedicellatum Z. H. Pan &amp; M.F.Watson
@@ -587,7 +601,7 @@
 Acronema tenerum (DC.) Edgew.
 Acronema xizangense S.L. Liou &amp; Shan
 Acronema yadongense S.L. Liou
-Selon Tropicos                                           (24 juin 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juin 2018) (Attention liste brute contenant possiblement des synonymes) :
 Acronema acronemifolium H. Wolff
 Acronema alpinum S.L. Liou &amp; R.H. Shan
 Acronema astrantiifolium H. Wolff
